--- a/data_export/kaos_polos.xlsx
+++ b/data_export/kaos_polos.xlsx
@@ -1080,7 +1080,7 @@
         <v>90000</v>
       </c>
       <c r="J14" t="n">
-        <v>900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">

--- a/data_export/kaos_polos.xlsx
+++ b/data_export/kaos_polos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,53 +488,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AE2DHI</t>
+          <t>243df34</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KAOS ALS</t>
+          <t>dfgege</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COTTON CARDED 20S</t>
+          <t>Polosan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PENDEK</t>
+          <t>Pendek</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O NECK</t>
+          <t>V-Neck</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>Hitam</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="J2" t="n">
-        <v>375000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AE2GHI</t>
+          <t>AF2FHI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COTTON CARDED 20S</t>
+          <t>CATTON TC30S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,34 +568,34 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="J3" t="n">
-        <v>375000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AF2FHI</t>
+          <t>AK2CHL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KAOS ALS</t>
+          <t>KAOS RMS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CATTON TC30S</t>
+          <t>COTTON KOZE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -610,23 +610,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>HIJAU LUMUT</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="J4" t="n">
-        <v>350000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AK2CHL</t>
+          <t>AK2CKK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>HIJAU LUMUT</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -672,7 +672,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AK2CKK</t>
+          <t>AK2DBD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -718,7 +718,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AK2DBD</t>
+          <t>AK2DOR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>ORANGE</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -764,7 +764,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AK2DOR</t>
+          <t>AK2FPU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t xml:space="preserve">L </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ORANGE</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -810,7 +810,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AK2FPU</t>
+          <t>AK2GHI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">L </t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -856,22 +856,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AK2GHI</t>
+          <t>AP2DKK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KAOS RMS</t>
+          <t>POLO ALS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COTTON KOZE</t>
+          <t>COTTON VISCOSE PIQUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -881,28 +881,28 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O NECK</t>
+          <t>BERKERAH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="J10" t="n">
-        <v>375000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AP2DKK</t>
+          <t>AP2FBD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -948,7 +948,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AP2FBD</t>
+          <t>AP2HBB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>BIRU BENHUR</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -994,73 +994,73 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AP2HBB</t>
+          <t>AR3FHI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POLO ALS</t>
+          <t>REGLAN ALS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COTTON VISCOSE PIQUE</t>
+          <t>COTTON COMBED 20S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PENDEK</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BERKERAH</t>
+          <t>O NECK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BIRU BENHUR</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="J13" t="n">
-        <v>850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AR3FHI</t>
+          <t>AT1DHI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REGLAN ALS</t>
+          <t>TUNIK ALS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COTTON COMBED 20S</t>
+          <t>COTTON SPANDEX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>PANJANG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1080,13 +1080,13 @@
         <v>90000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AT1DHI</t>
+          <t>AT1FHI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AT1FHI</t>
+          <t>AT1GHI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1178,22 +1178,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AT1GHI</t>
+          <t>AV1CHI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TUNIK ALS</t>
+          <t>KAOS ALS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COTTON SPANDEX</t>
+          <t>COTTON COMBED 20S</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1215,16 +1215,16 @@
         <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="J17" t="n">
-        <v>900000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AV1CHI</t>
+          <t>AV1CPU</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1254,23 +1254,23 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" t="n">
         <v>70000</v>
       </c>
       <c r="J18" t="n">
-        <v>700000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AV1CPU</t>
+          <t>AV1DHA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1300,23 +1300,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HIJAU ARMY</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>70000</v>
       </c>
       <c r="J19" t="n">
-        <v>1400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AV1DHA</t>
+          <t>AV1DHI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1346,23 +1346,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>HIJAU ARMY</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
         <v>70000</v>
       </c>
       <c r="J20" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AV1DHI</t>
+          <t>AV1DKK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t xml:space="preserve">M </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1392,23 +1392,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
         <v>70000</v>
       </c>
       <c r="J21" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AV1DKK</t>
+          <t>AV1DPU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">M </t>
+          <t>M</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1438,23 +1438,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I22" t="n">
         <v>70000</v>
       </c>
       <c r="J22" t="n">
-        <v>350000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AV1DPU</t>
+          <t>AV1EHI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1484,23 +1484,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
         <v>70000</v>
       </c>
       <c r="J23" t="n">
-        <v>1400000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AV1EHI</t>
+          <t>AV1EHS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t xml:space="preserve">ML </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1530,23 +1530,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>HIJAU STABILO</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
         <v>70000</v>
       </c>
       <c r="J24" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AV1EHS</t>
+          <t>AV1EMM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>HIJAU STABILO</t>
+          <t>MERAH MAROON</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1592,7 +1592,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AV1EMM</t>
+          <t>AV1EPM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MERAH MAROON</t>
+          <t>PINK MAGENTA</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1638,7 +1638,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AV1EPM</t>
+          <t>AV1EPU</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">ML </t>
+          <t>ML</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1668,23 +1668,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PINK MAGENTA</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
         <v>70000</v>
       </c>
       <c r="J27" t="n">
-        <v>350000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AV1EPU</t>
+          <t>AV1FHI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1714,23 +1714,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
         <v>70000</v>
       </c>
       <c r="J28" t="n">
-        <v>1400000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AV1FHI</t>
+          <t>AV1FKK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1760,38 +1760,38 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
         <v>70000</v>
       </c>
       <c r="J29" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AV1FKK</t>
+          <t>AV1FMM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KAOS ALS</t>
+          <t>HOODIE ALS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t xml:space="preserve">L </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COTTON COMBED 20S</t>
+          <t>COTTON FLEECE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1801,43 +1801,43 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>O NECK</t>
+          <t>JUMPER</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>MERAH MAROON</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I30" t="n">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="J30" t="n">
-        <v>350000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AV1FMM</t>
+          <t>AV1FPM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HOODIE ALS</t>
+          <t>KAOS ALS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">L </t>
+          <t>L</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COTTON FLEECE</t>
+          <t>COTTON COMBED 20S</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1847,28 +1847,28 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>JUMPER</t>
+          <t>O NECK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MERAH MAROON</t>
+          <t>PINK MAGENTA</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>95000</v>
+        <v>70000</v>
       </c>
       <c r="J31" t="n">
-        <v>950000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AV1FPM</t>
+          <t>AV1FPU</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1898,23 +1898,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PINK MAGENTA</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
         <v>70000</v>
       </c>
       <c r="J32" t="n">
-        <v>350000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AV1FPU</t>
+          <t>AV1GAMt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1944,23 +1944,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>ABU MISTY TUA</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
         <v>70000</v>
       </c>
       <c r="J33" t="n">
-        <v>1400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AV1GAMt</t>
+          <t>AV1GBD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ABU MISTY TUA</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2006,7 +2006,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AV1GBD</t>
+          <t>AV1GHI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2036,23 +2036,23 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
         <v>70000</v>
       </c>
       <c r="J35" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AV1GHI</t>
+          <t>AV1GKK</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2082,23 +2082,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
         <v>70000</v>
       </c>
       <c r="J36" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AV1GKK</t>
+          <t>AV1GMT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>MERAH TERANG</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2144,7 +2144,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AV1GMT</t>
+          <t>AV1GPM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MERAH TERANG</t>
+          <t>PINK MAGENTA</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2190,7 +2190,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AV1GPM</t>
+          <t>AV1GPU</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2220,23 +2220,23 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PINK MAGENTA</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I39" t="n">
         <v>70000</v>
       </c>
       <c r="J39" t="n">
-        <v>350000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AV1GPU</t>
+          <t>AV1HAMm</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2266,23 +2266,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>ABU MISTY MUDA</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
         <v>70000</v>
       </c>
       <c r="J40" t="n">
-        <v>1400000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AV1HAMm</t>
+          <t>AV1HAMt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t xml:space="preserve">XXL </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ABU MISTY MUDA</t>
+          <t>ABU MISTY TUA</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2328,7 +2328,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AV1HAMt</t>
+          <t>AV1HHI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">XXL </t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2358,23 +2358,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ABU MISTY TUA</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
         <v>70000</v>
       </c>
       <c r="J42" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AV1HHI</t>
+          <t>AV1HPU</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2404,23 +2404,23 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
         <v>70000</v>
       </c>
       <c r="J43" t="n">
-        <v>700000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AV1HPU</t>
+          <t>AV2AHI</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PANJANG</t>
+          <t>PENDEK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
         <v>70000</v>
       </c>
       <c r="J44" t="n">
-        <v>1400000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AV2AHI</t>
+          <t>AV2APU</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2512,7 +2512,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AV2APU</t>
+          <t>AV2BBT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2542,23 +2542,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>BIRU TOSKA</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
         <v>70000</v>
       </c>
       <c r="J46" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AV2BBT</t>
+          <t>AV2BHI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2588,23 +2588,23 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>BIRU TOSKA</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
         <v>70000</v>
       </c>
       <c r="J47" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AV2BHI</t>
+          <t>AV2BPU</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2650,7 +2650,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AV2BPU</t>
+          <t>AV2CAG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2680,23 +2680,23 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>ABU GELAP</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
         <v>70000</v>
       </c>
       <c r="J49" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AV2CAG</t>
+          <t>AV2CBD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ABU GELAP</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2742,7 +2742,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AV2CBD</t>
+          <t>AV2CBTt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>BIRU TURKISH TU</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2788,7 +2788,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AV2CBTt</t>
+          <t>AV2CHI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2818,23 +2818,23 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BIRU TURKISH TU</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
         <v>70000</v>
       </c>
       <c r="J52" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AV2CHI</t>
+          <t>AV2CHN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2864,23 +2864,23 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>HIJAU NAVY</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
         <v>70000</v>
       </c>
       <c r="J53" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AV2CHN</t>
+          <t>AV2CKB</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HIJAU NAVY</t>
+          <t>KUNING BABY</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2926,7 +2926,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AV2CKB</t>
+          <t>AV2CMM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>KUNING BABY</t>
+          <t>MERAH MAROON</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2972,7 +2972,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AV2CMM</t>
+          <t>AV2COR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MERAH MAROON</t>
+          <t>ORANGE</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3018,7 +3018,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AV2COR</t>
+          <t>AV2CPU</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3048,23 +3048,23 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ORANGE</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
         <v>70000</v>
       </c>
       <c r="J57" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AV2CPU</t>
+          <t>AV2DBB</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3094,23 +3094,23 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>BIRU BENHUR</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
         <v>70000</v>
       </c>
       <c r="J58" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AV2DBB</t>
+          <t>AV2DHI</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3140,23 +3140,23 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BIRU BENHUR</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
         <v>70000</v>
       </c>
       <c r="J59" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AV2DHI</t>
+          <t>AV2DMC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3186,23 +3186,23 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>MERAH CABE</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
         <v>70000</v>
       </c>
       <c r="J60" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AV2DMC</t>
+          <t>AV2DMT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>MERAH CABE</t>
+          <t>MERAH TERANG</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3248,7 +3248,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AV2DMT</t>
+          <t>AV2DPU</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3278,23 +3278,23 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>MERAH TERANG</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
         <v>70000</v>
       </c>
       <c r="J62" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AV2DPU</t>
+          <t>AV2EAG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3324,23 +3324,23 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>ABU GELAP</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
         <v>70000</v>
       </c>
       <c r="J63" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AV2EAG</t>
+          <t>AV2EHI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3370,23 +3370,23 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ABU GELAP</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
         <v>70000</v>
       </c>
       <c r="J64" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AV2EHI</t>
+          <t>AV2EPU</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3432,7 +3432,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AV2EPU</t>
+          <t>AV2FBD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3462,23 +3462,23 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
         <v>70000</v>
       </c>
       <c r="J66" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AV2FBD</t>
+          <t>AV2FBT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t xml:space="preserve">L </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>BIRU TOSKA</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3524,7 +3524,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AV2FBT</t>
+          <t>AV2FCK</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">L </t>
+          <t>L</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BIRU TOSKA</t>
+          <t>COKLAT KOPI</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3570,7 +3570,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AV2FCK</t>
+          <t>AV2FCT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>COKLAT KOPI</t>
+          <t>COKLAT TUA</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3616,7 +3616,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AV2FCT</t>
+          <t>AV2FHI</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3646,23 +3646,23 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>COKLAT TUA</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I70" t="n">
         <v>70000</v>
       </c>
       <c r="J70" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AV2FHI</t>
+          <t>AV2FKK</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t xml:space="preserve">L </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3692,23 +3692,23 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
         <v>70000</v>
       </c>
       <c r="J71" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AV2FKK</t>
+          <t>AV2FMM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">L </t>
+          <t>L</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>MERAH MAROON</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3754,7 +3754,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AV2FMM</t>
+          <t>AV2FMT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t xml:space="preserve">L </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>MERAH MAROON</t>
+          <t>MERAH TERANG</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3800,7 +3800,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AV2FMT</t>
+          <t>AV2FPU</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">L </t>
+          <t>L</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3830,23 +3830,23 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>MERAH TERANG</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I74" t="n">
         <v>70000</v>
       </c>
       <c r="J74" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AV2FPU</t>
+          <t>AV2GBD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3876,23 +3876,23 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
         <v>70000</v>
       </c>
       <c r="J75" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AV2GBD</t>
+          <t>AV2GBT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>BIRU TOSKA</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3938,7 +3938,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AV2GBT</t>
+          <t>AV2GHI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3968,23 +3968,23 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BIRU TOSKA</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I77" t="n">
         <v>70000</v>
       </c>
       <c r="J77" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AV2GHI</t>
+          <t>AV2GHN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4014,23 +4014,23 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>HIJAU NAVY</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
         <v>70000</v>
       </c>
       <c r="J78" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AV2GHN</t>
+          <t>AV2GHS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>HIJAU NAVY</t>
+          <t>HIJAU STABILO</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -4076,7 +4076,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AV2GHS</t>
+          <t>AV2GMM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>HIJAU STABILO</t>
+          <t>MERAH MAROON</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -4122,7 +4122,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AV2GMM</t>
+          <t>AV2GPB</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MERAH MAROON</t>
+          <t>PINK BABY</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -4168,7 +4168,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AV2GPB</t>
+          <t>AV2GPU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4198,23 +4198,23 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PINK BABY</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I82" t="n">
         <v>70000</v>
       </c>
       <c r="J82" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AV2GPU</t>
+          <t>AV2HAMm</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4244,23 +4244,23 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>ABU MISTY MUDA</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
         <v>70000</v>
       </c>
       <c r="J83" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AV2HAMm</t>
+          <t>AV2HHI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4290,23 +4290,23 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ABU MISTY MUDA</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
         <v>70000</v>
       </c>
       <c r="J84" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AV2HHI</t>
+          <t>AV2HPU</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4352,7 +4352,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AV2HPU</t>
+          <t>AV2IHI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXXL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -4398,7 +4398,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AV2IHI</t>
+          <t>AV2IPU</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4444,7 +4444,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AV2IPU</t>
+          <t>AV2JHI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XXXL</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4490,7 +4490,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AV2JHI</t>
+          <t>AV2JKK</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4520,23 +4520,23 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>KUNING KENARI</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
         <v>70000</v>
       </c>
       <c r="J89" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AV2JKK</t>
+          <t>AV2JPU</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>KUNING KENARI</t>
+          <t>PUTIH</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
         <v>70000</v>
       </c>
       <c r="J90" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AV2JPU</t>
+          <t>AV4GBB</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PENDEK</t>
+          <t>PANJANG MANSET</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4612,23 +4612,23 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PUTIH</t>
+          <t>BIRU BABY</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I91" t="n">
         <v>70000</v>
       </c>
       <c r="J91" t="n">
-        <v>700000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AV4GBB</t>
+          <t>AVn2GHI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4648,17 +4648,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PANJANG MANSET</t>
+          <t>PENDEK</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>O NECK</t>
+          <t>V NECK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BIRU BABY</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4674,32 +4674,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AVn2GHI</t>
+          <t>AX1DHI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KAOS ALS</t>
+          <t>SWEATER ALS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>COTTON COMBED 20S</t>
+          <t>COTTON FLEECE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PENDEK</t>
+          <t>PANJANG</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>V NECK</t>
+          <t>OBLONG</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4708,29 +4708,29 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I93" t="n">
-        <v>70000</v>
+        <v>95000</v>
       </c>
       <c r="J93" t="n">
-        <v>350000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AX1DHI</t>
+          <t>AZ1GHI</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SWEATER ALS</t>
+          <t>HOODIE ALS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OBLONG</t>
+          <t>JUMPER</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4766,7 +4766,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AZ1GHI</t>
+          <t>AZ1HHI</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4812,22 +4812,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AZ1HHI</t>
+          <t>GS1CHI</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HOODIE ALS</t>
+          <t>KAOS GM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>COTTON FLEECE</t>
+          <t>COTTON COMBED 24S</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>JUMPER</t>
+          <t>O NECK</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4846,19 +4846,19 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="J96" t="n">
-        <v>950000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GS1CHI</t>
+          <t>GS1DBD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -4904,7 +4904,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GS1DBD</t>
+          <t>GS1FBD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4950,7 +4950,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GS1FBD</t>
+          <t>GS1FHI</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4996,7 +4996,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GS1FHI</t>
+          <t>GS2DBD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PANJANG</t>
+          <t>PENDEK</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -5042,7 +5042,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GS2DBD</t>
+          <t>GS2FBD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GS2FBD</t>
+          <t>GS2FHI</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -5134,7 +5134,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GS2FHI</t>
+          <t>GS2GBD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -5180,7 +5180,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GS2GBD</t>
+          <t>GS2GHI</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>BIRU DONGKER</t>
+          <t>HITAM</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -5226,7 +5226,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GS2GHI</t>
+          <t>GS2NBD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>HITAM</t>
+          <t>BIRU DONGKER</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -5266,52 +5266,6 @@
         <v>75000</v>
       </c>
       <c r="J105" t="n">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>GS2NBD</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>KAOS GM</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>COTTON COMBED 24S</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>PENDEK</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>O NECK</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>BIRU DONGKER</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>5</v>
-      </c>
-      <c r="I106" t="n">
-        <v>75000</v>
-      </c>
-      <c r="J106" t="n">
         <v>375000</v>
       </c>
     </row>
